--- a/time_sequence.xlsx
+++ b/time_sequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HERAMB\Desktop\pandas\timesequence program copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502D9A6B-CF92-4C37-BFDB-6FFAE1F499E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D150D-FA42-45DD-A977-63103DA37404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_sequence" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Instrument</t>
   </si>
@@ -57,34 +57,247 @@
     <t>Instruments</t>
   </si>
   <si>
-    <t>780 power</t>
-  </si>
-  <si>
-    <t>780 detuning</t>
-  </si>
-  <si>
-    <t>420 power</t>
-  </si>
-  <si>
-    <t>420 detuning</t>
-  </si>
-  <si>
-    <t>coil current</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
-    <t>image beam</t>
-  </si>
-  <si>
-    <t>AOM</t>
-  </si>
-  <si>
-    <t>Blue MOT</t>
-  </si>
-  <si>
-    <t>Helmholtz Coil</t>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>D1CH1</t>
+  </si>
+  <si>
+    <t>D1CH2</t>
+  </si>
+  <si>
+    <t>D1CH3</t>
+  </si>
+  <si>
+    <t>D1CH4</t>
+  </si>
+  <si>
+    <t>D1CH5</t>
+  </si>
+  <si>
+    <t>D1CH6</t>
+  </si>
+  <si>
+    <t>D1CH7</t>
+  </si>
+  <si>
+    <t>D1CH8</t>
+  </si>
+  <si>
+    <t>D1CH9</t>
+  </si>
+  <si>
+    <t>D1CH10</t>
+  </si>
+  <si>
+    <t>D1CH11</t>
+  </si>
+  <si>
+    <t>D1CH12</t>
+  </si>
+  <si>
+    <t>D1CH13</t>
+  </si>
+  <si>
+    <t>D1CH14</t>
+  </si>
+  <si>
+    <t>D1CH15</t>
+  </si>
+  <si>
+    <t>D1CH16</t>
+  </si>
+  <si>
+    <t>D2CH1</t>
+  </si>
+  <si>
+    <t>D2CH2</t>
+  </si>
+  <si>
+    <t>D2CH3</t>
+  </si>
+  <si>
+    <t>D2CH4</t>
+  </si>
+  <si>
+    <t>D2CH5</t>
+  </si>
+  <si>
+    <t>D2CH6</t>
+  </si>
+  <si>
+    <t>D2CH7</t>
+  </si>
+  <si>
+    <t>D2CH8</t>
+  </si>
+  <si>
+    <t>D2CH9</t>
+  </si>
+  <si>
+    <t>D2CH10</t>
+  </si>
+  <si>
+    <t>D2CH11</t>
+  </si>
+  <si>
+    <t>D2CH12</t>
+  </si>
+  <si>
+    <t>D2CH13</t>
+  </si>
+  <si>
+    <t>D2CH14</t>
+  </si>
+  <si>
+    <t>D2CH15</t>
+  </si>
+  <si>
+    <t>D2CH16</t>
+  </si>
+  <si>
+    <t>D3CH1</t>
+  </si>
+  <si>
+    <t>D3CH2</t>
+  </si>
+  <si>
+    <t>D3CH3</t>
+  </si>
+  <si>
+    <t>D3CH4</t>
+  </si>
+  <si>
+    <t>D3CH5</t>
+  </si>
+  <si>
+    <t>D3CH6</t>
+  </si>
+  <si>
+    <t>D3CH7</t>
+  </si>
+  <si>
+    <t>D3CH8</t>
+  </si>
+  <si>
+    <t>D3CH9</t>
+  </si>
+  <si>
+    <t>D3CH10</t>
+  </si>
+  <si>
+    <t>D3CH11</t>
+  </si>
+  <si>
+    <t>D3CH12</t>
+  </si>
+  <si>
+    <t>D3CH13</t>
+  </si>
+  <si>
+    <t>D3CH14</t>
+  </si>
+  <si>
+    <t>D3CH15</t>
+  </si>
+  <si>
+    <t>D3CH16</t>
+  </si>
+  <si>
+    <t>D4CH1</t>
+  </si>
+  <si>
+    <t>D4CH2</t>
+  </si>
+  <si>
+    <t>D4CH3</t>
+  </si>
+  <si>
+    <t>D4CH4</t>
+  </si>
+  <si>
+    <t>D4CH5</t>
+  </si>
+  <si>
+    <t>D4CH6</t>
+  </si>
+  <si>
+    <t>D4CH7</t>
+  </si>
+  <si>
+    <t>D4CH8</t>
+  </si>
+  <si>
+    <t>D4CH9</t>
+  </si>
+  <si>
+    <t>D4CH10</t>
+  </si>
+  <si>
+    <t>D4CH11</t>
+  </si>
+  <si>
+    <t>D4CH12</t>
+  </si>
+  <si>
+    <t>D4CH13</t>
+  </si>
+  <si>
+    <t>D4CH14</t>
+  </si>
+  <si>
+    <t>D4CH15</t>
+  </si>
+  <si>
+    <t>D4CH16</t>
+  </si>
+  <si>
+    <t>D5CH1</t>
+  </si>
+  <si>
+    <t>D5CH2</t>
+  </si>
+  <si>
+    <t>D5CH3</t>
+  </si>
+  <si>
+    <t>D5CH4</t>
+  </si>
+  <si>
+    <t>D5CH5</t>
+  </si>
+  <si>
+    <t>D5CH6</t>
+  </si>
+  <si>
+    <t>D5CH7</t>
+  </si>
+  <si>
+    <t>D5CH8</t>
+  </si>
+  <si>
+    <t>D5CH9</t>
+  </si>
+  <si>
+    <t>D5CH10</t>
+  </si>
+  <si>
+    <t>D5CH11</t>
+  </si>
+  <si>
+    <t>D5CH12</t>
+  </si>
+  <si>
+    <t>D5CH13</t>
+  </si>
+  <si>
+    <t>D5CH14</t>
+  </si>
+  <si>
+    <t>D5CH15</t>
+  </si>
+  <si>
+    <t>D5CH16</t>
   </si>
 </sst>
 </file>
@@ -414,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -551,45 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -635,15 +809,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -707,8 +880,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94524753-50A5-4CB1-994D-C79FAF295379}" name="Table1" displayName="Table1" ref="A1:G10" headerRowDxfId="0">
-  <autoFilter ref="A1:G10" xr:uid="{12344A3D-FEF1-4A2E-ABA4-33659EC73FD9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94524753-50A5-4CB1-994D-C79FAF295379}" name="Table1" displayName="Table1" ref="A1:G13" headerRowDxfId="0">
+  <autoFilter ref="A1:G13" xr:uid="{12344A3D-FEF1-4A2E-ABA4-33659EC73FD9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1029,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:F10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1242,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1077,193 +1250,202 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <f>B2*10^6+C2*10^3+D2</f>
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <f t="shared" ref="E2:E4" si="0">B2*10^6+C2*10^3+D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>0</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
       </c>
       <c r="E3">
         <f>B3*10^6+C3*10^3+D3</f>
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <f>B4*10^6+C4*10^3+D4</f>
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>0</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
       </c>
       <c r="E5">
         <f>B5*10^6+C5*10^3+D5</f>
-        <v>24</v>
-      </c>
-      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <f>B6*10^6+C6*10^3+D6</f>
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>24</v>
+        <f t="shared" ref="E6:E8" si="1">B6*10^6+C6*10^3+D6</f>
+        <v>10000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>0</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
       </c>
       <c r="E7">
         <f>B7*10^6+C7*10^3+D7</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <f>B8*10^6+C8*10^3+D8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>B9*10^6+C9*10^3+D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="2">B10*10^6+C10*10^3+D10</f>
+        <v>10000</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <f>B9*10^6+C9*10^3+D9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>B11*10^6+C11*10^3+D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <f>B10*10^6+C10*10^3+D10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E13" si="3">B12*10^6+C12*10^3+D12</f>
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>B13*10^6+C13*10^3+D13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Negative Value" error="You have entered negative value for time" sqref="B2:E10" xr:uid="{959DAA09-19BF-4F14-83EC-E8F0BECA83A6}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Negative Value" error="You have entered negative value for time" sqref="B2:E13" xr:uid="{959DAA09-19BF-4F14-83EC-E8F0BECA83A6}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1277,9 +1459,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Instrument Name" error="Please correct the instrument name or add new instrument in the drop-down list" promptTitle="Name of instrument" xr:uid="{554CA878-7905-41BA-9192-F874EBFFA98C}">
           <x14:formula1>
-            <xm:f>'List of Instruments'!$A$2:$A$11</xm:f>
+            <xm:f>'List of Instruments'!$A$2:$A$81</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A10</xm:sqref>
+          <xm:sqref>A2:A13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1303,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAEBC12-2BFE-4DE1-983D-A8C6C3A1BF2F}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,55 +1500,410 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="A8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
+      <c r="A9" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
+      <c r="A10" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Instrument Name" error="Please correct the instrument name or add new instrument in the drop-down list" promptTitle="Name of instrument" sqref="A7:A11" xr:uid="{CAD20F53-188A-4907-9046-CE3B1CA582DA}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>